--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2724139.549273378</v>
+        <v>2721255.440972938</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>420028.6875023819</v>
+        <v>420028.687502382</v>
       </c>
     </row>
     <row r="9">
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,70 +738,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D3" t="n">
+      <c r="T3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,61 +829,61 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K4" t="n">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
     </row>
     <row r="5">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,67 +975,67 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,70 +1054,70 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="W7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.587217180758445</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.587217180758445</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>12.46326292246988</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,52 +1300,52 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12.46326292246988</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.46326292246988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>51.89407438975498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571659</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.9987150475866</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799772605716112</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>73.22341869628478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991449</v>
       </c>
     </row>
   </sheetData>
@@ -4337,10 +4337,10 @@
         <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>20.97193951221988</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
         <v>27.50418296684575</v>
@@ -4352,16 +4352,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
         <v>14.44108515774386</v>
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.856703976333826</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>2.214854686289198</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>9.02213997058352</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>15.82942525487784</v>
       </c>
       <c r="O4" t="n">
         <v>22.63671053917217</v>
@@ -4507,31 +4507,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X4" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4565,13 +4565,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>13.8896123982571</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M5" t="n">
         <v>13.8896123982571</v>
@@ -4580,7 +4580,7 @@
         <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>20.69689768255142</v>
@@ -4598,7 +4598,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
         <v>14.44108515774386</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
         <v>0.5500836593369149</v>
@@ -4644,52 +4644,52 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N6" t="n">
-        <v>7.082327113962777</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O6" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P6" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V6" t="n">
         <v>14.44108515774386</v>
       </c>
       <c r="W6" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X6" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
         <v>0.5500836593369149</v>
@@ -4732,10 +4732,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O7" t="n">
         <v>20.97193951221988</v>
@@ -4747,28 +4747,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W7" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X7" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.37035940149558</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="C8" t="n">
-        <v>22.37035940149558</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="D8" t="n">
-        <v>22.37035940149558</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="E8" t="n">
         <v>22.37035940149558</v>
@@ -4802,22 +4802,22 @@
         <v>1.131994815846493</v>
       </c>
       <c r="J8" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="K8" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="L8" t="n">
-        <v>1.131994815846493</v>
+        <v>29.14886650804719</v>
       </c>
       <c r="M8" t="n">
-        <v>15.14043066194684</v>
+        <v>29.14886650804719</v>
       </c>
       <c r="N8" t="n">
-        <v>28.58286910012395</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="O8" t="n">
-        <v>28.58286910012395</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="P8" t="n">
         <v>42.5913049462243</v>
@@ -4826,28 +4826,28 @@
         <v>56.59974079232465</v>
       </c>
       <c r="R8" t="n">
+        <v>56.59974079232465</v>
+      </c>
+      <c r="S8" t="n">
         <v>42.30687695587903</v>
       </c>
-      <c r="S8" t="n">
-        <v>36.6632232379412</v>
-      </c>
       <c r="T8" t="n">
-        <v>36.6632232379412</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="U8" t="n">
-        <v>36.6632232379412</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="V8" t="n">
-        <v>36.6632232379412</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="W8" t="n">
-        <v>36.6632232379412</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="X8" t="n">
-        <v>36.6632232379412</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.6632232379412</v>
+        <v>42.30687695587903</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.71772248873773</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C9" t="n">
-        <v>29.71772248873773</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="G9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="H9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="I9" t="n">
         <v>1.131994815846493</v>
       </c>
       <c r="J9" t="n">
-        <v>10.45897684084277</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="K9" t="n">
         <v>10.45897684084277</v>
       </c>
       <c r="L9" t="n">
-        <v>10.45897684084277</v>
+        <v>24.46741268694312</v>
       </c>
       <c r="M9" t="n">
-        <v>24.46741268694311</v>
+        <v>38.47584853304346</v>
       </c>
       <c r="N9" t="n">
-        <v>38.47584853304346</v>
+        <v>52.48428437914381</v>
       </c>
       <c r="O9" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="P9" t="n">
         <v>56.59974079232465</v>
@@ -4905,28 +4905,28 @@
         <v>56.59974079232465</v>
       </c>
       <c r="R9" t="n">
+        <v>56.59974079232465</v>
+      </c>
+      <c r="S9" t="n">
         <v>42.30687695587903</v>
       </c>
-      <c r="S9" t="n">
-        <v>29.71772248873773</v>
-      </c>
       <c r="T9" t="n">
-        <v>29.71772248873773</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="U9" t="n">
-        <v>29.71772248873773</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="V9" t="n">
-        <v>29.71772248873773</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="W9" t="n">
-        <v>29.71772248873773</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="X9" t="n">
-        <v>29.71772248873773</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.71772248873773</v>
+        <v>15.42485865229211</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F10" t="n">
         <v>1.131994815846493</v>
@@ -4972,40 +4972,40 @@
         <v>29.14886650804719</v>
       </c>
       <c r="N10" t="n">
-        <v>42.5913049462243</v>
+        <v>29.14886650804719</v>
       </c>
       <c r="O10" t="n">
-        <v>56.59974079232465</v>
+        <v>43.15730235414754</v>
       </c>
       <c r="P10" t="n">
         <v>56.59974079232465</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.30687695587903</v>
+        <v>44.01058632518335</v>
       </c>
       <c r="R10" t="n">
-        <v>42.30687695587903</v>
+        <v>44.01058632518335</v>
       </c>
       <c r="S10" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="T10" t="n">
-        <v>42.30687695587903</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="U10" t="n">
-        <v>42.30687695587903</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="V10" t="n">
-        <v>42.30687695587903</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="W10" t="n">
-        <v>42.30687695587903</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="X10" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.1492342949679</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6257,10 +6257,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,16 +6607,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6677,16 +6677,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
@@ -6926,37 +6926,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>220.4249025169917</v>
       </c>
       <c r="M2" t="n">
-        <v>212.5009646122118</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
         <v>210.8899582399309</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>213.252896592586</v>
       </c>
       <c r="P2" t="n">
         <v>210.9873633211545</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>125.9054000402213</v>
       </c>
       <c r="L3" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>129.9234925718064</v>
       </c>
       <c r="N3" t="n">
         <v>118.6260055667107</v>
       </c>
       <c r="O3" t="n">
-        <v>131.2718443992972</v>
+        <v>131.5496644292654</v>
       </c>
       <c r="P3" t="n">
-        <v>126.4659658995391</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>137.2421710355686</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>132.371579436055</v>
+        <v>127.177120590255</v>
       </c>
       <c r="M4" t="n">
         <v>135.9022952863677</v>
@@ -8149,7 +8149,7 @@
         <v>124.8974446055506</v>
       </c>
       <c r="O4" t="n">
-        <v>131.2117226975745</v>
+        <v>136.4061815433745</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>122.998204614152</v>
+        <v>116.1221588724425</v>
       </c>
       <c r="K5" t="n">
-        <v>129.3842117658843</v>
+        <v>122.785986054144</v>
       </c>
       <c r="L5" t="n">
-        <v>115.0523662525406</v>
+        <v>121.6505919642875</v>
       </c>
       <c r="M5" t="n">
-        <v>96.02859492201253</v>
+        <v>102.9046406637281</v>
       </c>
       <c r="N5" t="n">
-        <v>92.92202547878409</v>
+        <v>92.92202547878827</v>
       </c>
       <c r="O5" t="n">
-        <v>101.2135945572051</v>
+        <v>108.0896402989204</v>
       </c>
       <c r="P5" t="n">
-        <v>128.1090028541425</v>
+        <v>121.2329571124345</v>
       </c>
       <c r="Q5" t="n">
-        <v>146.5762876594025</v>
+        <v>146.576287659405</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>88.16948852718212</v>
+        <v>95.04553426889473</v>
       </c>
       <c r="K6" t="n">
-        <v>71.7514319235534</v>
+        <v>78.62747766526684</v>
       </c>
       <c r="L6" t="n">
-        <v>49.68820928662021</v>
+        <v>49.68820928662292</v>
       </c>
       <c r="M6" t="n">
-        <v>38.43140450286307</v>
+        <v>45.30745024457767</v>
       </c>
       <c r="N6" t="n">
-        <v>31.49260835200081</v>
+        <v>24.89438264026076</v>
       </c>
       <c r="O6" t="n">
-        <v>52.09377991956568</v>
+        <v>45.21773417785721</v>
       </c>
       <c r="P6" t="n">
-        <v>62.69561362598833</v>
+        <v>55.81956788427927</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.61337934625303</v>
+        <v>94.33555931628646</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>89.14802718913054</v>
+        <v>89.14802718913177</v>
       </c>
       <c r="L7" t="n">
-        <v>90.74695148539925</v>
+        <v>90.74695148540081</v>
       </c>
       <c r="M7" t="n">
-        <v>85.13891557418066</v>
+        <v>92.01496131589374</v>
       </c>
       <c r="N7" t="n">
-        <v>82.05365334387827</v>
+        <v>82.05365334387986</v>
       </c>
       <c r="O7" t="n">
-        <v>96.83300584465886</v>
+        <v>89.9569601029489</v>
       </c>
       <c r="P7" t="n">
-        <v>102.8264619223455</v>
+        <v>102.8264619223468</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>83.20324886963371</v>
+        <v>97.35318406771488</v>
       </c>
       <c r="K8" t="n">
         <v>73.44907330703683</v>
       </c>
       <c r="L8" t="n">
-        <v>53.84556332150555</v>
+        <v>67.99549851958672</v>
       </c>
       <c r="M8" t="n">
-        <v>42.07416857096511</v>
+        <v>27.92423337288395</v>
       </c>
       <c r="N8" t="n">
         <v>37.2938848034961</v>
@@ -8468,7 +8468,7 @@
         <v>35.86399002417318</v>
       </c>
       <c r="P8" t="n">
-        <v>79.60851675810505</v>
+        <v>65.4585815600239</v>
       </c>
       <c r="Q8" t="n">
         <v>111.9659438567774</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>77.98440521126329</v>
+        <v>68.56321124662058</v>
       </c>
       <c r="K9" t="n">
-        <v>38.24118120917458</v>
+        <v>47.66237517381729</v>
       </c>
       <c r="L9" t="n">
-        <v>4.629541779345772</v>
+        <v>18.77947697742692</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30.34190453813595</v>
+        <v>16.1919693400548</v>
       </c>
       <c r="Q9" t="n">
         <v>61.24733342008113</v>
@@ -8620,13 +8620,13 @@
         <v>57.86684336893533</v>
       </c>
       <c r="N10" t="n">
-        <v>62.13222496250697</v>
+        <v>48.55400431788362</v>
       </c>
       <c r="O10" t="n">
-        <v>79.51568851293169</v>
+        <v>79.5156885129317</v>
       </c>
       <c r="P10" t="n">
-        <v>75.18621054113731</v>
+        <v>88.76443118576066</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.66174683280009</v>
+        <v>7.661746832800114</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>115.3527467088728</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405073</v>
+        <v>38.13892827624167</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.13892827624144</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>47.71290145456669</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>152.4862366927524</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>800209.5192893781</v>
+        <v>800209.5192893791</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.820223428</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>676815.3249021029</v>
+        <v>676815.3249021032</v>
       </c>
       <c r="C2" t="n">
-        <v>676856.3132235237</v>
+        <v>676856.3132235238</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>141378.9676610313</v>
+        <v>141378.9676610261</v>
       </c>
       <c r="D3" t="n">
-        <v>84885.90196741826</v>
+        <v>84885.90196742324</v>
       </c>
       <c r="E3" t="n">
         <v>1214572.152861545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1840.955956402013</v>
+        <v>1840.95595640207</v>
       </c>
       <c r="M3" t="n">
         <v>288717.3757764822</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>411492.6121935259</v>
       </c>
       <c r="C4" t="n">
-        <v>375913.3011113846</v>
+        <v>375913.3011113859</v>
       </c>
       <c r="D4" t="n">
         <v>353530.8414321567</v>
@@ -26427,37 +26427,37 @@
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756603</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>38193.76875786226</v>
+        <v>38193.76875786213</v>
       </c>
       <c r="D5" t="n">
         <v>40739.27482484731</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194462.322461366</v>
+        <v>194460.6735667119</v>
       </c>
       <c r="C6" t="n">
-        <v>121370.2756932455</v>
+        <v>121368.75100563</v>
       </c>
       <c r="D6" t="n">
-        <v>198203.4419136109</v>
+        <v>198203.441913606</v>
       </c>
       <c r="E6" t="n">
-        <v>-659135.9382979535</v>
+        <v>-659170.6762233891</v>
       </c>
       <c r="F6" t="n">
-        <v>555436.2145635914</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="G6" t="n">
-        <v>555436.2145635915</v>
+        <v>555401.476638156</v>
       </c>
       <c r="H6" t="n">
-        <v>555436.2145635913</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="I6" t="n">
-        <v>555436.2145635912</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="J6" t="n">
-        <v>553637.138451547</v>
+        <v>553602.4005261116</v>
       </c>
       <c r="K6" t="n">
-        <v>555436.2145635912</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="L6" t="n">
-        <v>553595.2586071891</v>
+        <v>553560.5206817536</v>
       </c>
       <c r="M6" t="n">
-        <v>266718.8387871091</v>
+        <v>266684.1008616731</v>
       </c>
       <c r="N6" t="n">
-        <v>555436.2145635915</v>
+        <v>555401.4766381553</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635914</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635915</v>
+        <v>555401.4766381558</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>190.2800539801014</v>
+        <v>190.2800539800956</v>
       </c>
       <c r="D3" t="n">
         <v>286.759576367155</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>155.2587932609761</v>
+        <v>155.2587932609703</v>
       </c>
       <c r="D3" t="n">
-        <v>96.47952238705362</v>
+        <v>96.47952238705943</v>
       </c>
       <c r="E3" t="n">
         <v>1081.215923974519</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>1158.558352901567</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.273889456369497</v>
+        <v>7.273889456369725</v>
       </c>
       <c r="M4" t="n">
         <v>1158.558352901567</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>1158.558352901567</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.1492359435679</v>
+        <v>134.9688605959799</v>
       </c>
       <c r="S2" t="n">
-        <v>199.7554194370984</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27436,7 +27436,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.8762127284235</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>141.3886444753393</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>79.92703148097597</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>88.60479815866813</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>163.4079268796217</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>192.9850552304604</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>219.0603805004824</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>161.0517805236473</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27558,10 +27558,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>82.01821069278695</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>8.05620490400057</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.81741179380703</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>167.577752922068</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27591,19 +27591,19 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>279.4395389006103</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>212.5282322627954</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>331.6408097426065</v>
+        <v>331.6408097426067</v>
       </c>
       <c r="I5" t="n">
-        <v>180.9853497470175</v>
+        <v>180.9853497470184</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>94.94209957299586</v>
+        <v>94.94209957299731</v>
       </c>
       <c r="S5" t="n">
-        <v>191.5888867517868</v>
+        <v>191.5888867517873</v>
       </c>
       <c r="T5" t="n">
-        <v>219.7473030865519</v>
+        <v>219.747303086552</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2844573125866</v>
+        <v>245.2280362232872</v>
       </c>
       <c r="V5" t="n">
-        <v>321.6958373808355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,7 +27695,7 @@
         <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>136.9342355376685</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2826453792872</v>
+        <v>108.2826453792873</v>
       </c>
       <c r="I6" t="n">
-        <v>75.30513828779436</v>
+        <v>75.30513828779479</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>67.87042573034381</v>
+        <v>74.74647147205602</v>
       </c>
       <c r="S6" t="n">
-        <v>158.0245233295787</v>
+        <v>164.0809444188783</v>
       </c>
       <c r="T6" t="n">
-        <v>198.5150365287111</v>
+        <v>198.5150365287112</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9144556582418</v>
+        <v>219.8580345689424</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6478513922651</v>
+        <v>167.6478513922652</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3004072117521</v>
+        <v>159.1764529534636</v>
       </c>
       <c r="I7" t="n">
-        <v>145.1316811802718</v>
+        <v>145.1316811802721</v>
       </c>
       <c r="J7" t="n">
-        <v>69.10003290678345</v>
+        <v>69.10003290678419</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.42975510069908</v>
+        <v>57.42975510069995</v>
       </c>
       <c r="R7" t="n">
-        <v>161.8651102790452</v>
+        <v>154.9890645373342</v>
       </c>
       <c r="S7" t="n">
-        <v>218.0368133897615</v>
+        <v>218.0368133897617</v>
       </c>
       <c r="T7" t="n">
-        <v>226.4794972090905</v>
+        <v>226.4794972090906</v>
       </c>
       <c r="U7" t="n">
         <v>286.3003132856076</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>376.3431528915033</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>63.30446419443212</v>
+        <v>77.45439939251328</v>
       </c>
       <c r="S8" t="n">
-        <v>177.1633696056214</v>
+        <v>168.6006515882987</v>
       </c>
       <c r="T8" t="n">
         <v>218.0494574212279</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>152.3832484517862</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>133.2951303665576</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>106.2784198293222</v>
       </c>
       <c r="I9" t="n">
-        <v>54.01025732803046</v>
+        <v>68.16019252611162</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.7119691144351</v>
+        <v>61.86190431251626</v>
       </c>
       <c r="S9" t="n">
-        <v>147.7630515217934</v>
+        <v>146.0763792461821</v>
       </c>
       <c r="T9" t="n">
         <v>197.6785772732988</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9008028956399</v>
+        <v>211.7508676975587</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>239.2317202384497</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.2711128248501</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.4738719256655</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.71141202217282</v>
+        <v>30.3980842977841</v>
       </c>
       <c r="R10" t="n">
         <v>154.0423608081211</v>
       </c>
       <c r="S10" t="n">
-        <v>215.0048257763848</v>
+        <v>200.8548905783036</v>
       </c>
       <c r="T10" t="n">
-        <v>225.7361303972559</v>
+        <v>211.5861951991747</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2908234965204</v>
+        <v>272.1408882984392</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>211.559720190956</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.1213904296249</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7649449406235226</v>
+        <v>0.7649449406234993</v>
       </c>
       <c r="H5" t="n">
-        <v>7.833992373160653</v>
+        <v>7.833992373160415</v>
       </c>
       <c r="I5" t="n">
-        <v>29.49053982338839</v>
+        <v>29.49053982338749</v>
       </c>
       <c r="J5" t="n">
-        <v>64.92374565424576</v>
+        <v>64.92374565424379</v>
       </c>
       <c r="K5" t="n">
-        <v>97.3038649908395</v>
+        <v>97.30386499083653</v>
       </c>
       <c r="L5" t="n">
-        <v>120.7140487174467</v>
+        <v>120.714048717443</v>
       </c>
       <c r="M5" t="n">
-        <v>134.3176383052602</v>
+        <v>134.3176383052561</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4910381178068</v>
+        <v>136.4910381178026</v>
       </c>
       <c r="O5" t="n">
-        <v>128.8846168644816</v>
+        <v>128.8846168644777</v>
       </c>
       <c r="P5" t="n">
-        <v>110.0000386428384</v>
+        <v>110.0000386428351</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.60544795675848</v>
+        <v>82.60544795675597</v>
       </c>
       <c r="R5" t="n">
-        <v>48.05097262644239</v>
+        <v>48.05097262644093</v>
       </c>
       <c r="S5" t="n">
-        <v>17.43118283445854</v>
+        <v>17.43118283445801</v>
       </c>
       <c r="T5" t="n">
-        <v>3.348546477579472</v>
+        <v>3.34854647757937</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0611955952498818</v>
+        <v>0.06119559524987993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4092816255421049</v>
+        <v>0.4092816255420925</v>
       </c>
       <c r="H6" t="n">
-        <v>3.952798857209277</v>
+        <v>3.952798857209157</v>
       </c>
       <c r="I6" t="n">
-        <v>14.09149456362072</v>
+        <v>14.09149456362029</v>
       </c>
       <c r="J6" t="n">
-        <v>38.66813813948458</v>
+        <v>38.6681381394834</v>
       </c>
       <c r="K6" t="n">
-        <v>66.0900070508056</v>
+        <v>66.09000705080359</v>
       </c>
       <c r="L6" t="n">
-        <v>88.86617049325397</v>
+        <v>88.86617049325126</v>
       </c>
       <c r="M6" t="n">
-        <v>103.7026294191552</v>
+        <v>103.7026294191521</v>
       </c>
       <c r="N6" t="n">
-        <v>106.4473294430758</v>
+        <v>106.4473294430725</v>
       </c>
       <c r="O6" t="n">
-        <v>97.3785102665902</v>
+        <v>97.37851026658723</v>
       </c>
       <c r="P6" t="n">
-        <v>78.15483953005335</v>
+        <v>78.15483953005098</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.24444048147992</v>
+        <v>52.24444048147833</v>
       </c>
       <c r="R6" t="n">
-        <v>25.41136268058789</v>
+        <v>25.41136268058712</v>
       </c>
       <c r="S6" t="n">
-        <v>7.602226684959707</v>
+        <v>7.602226684959475</v>
       </c>
       <c r="T6" t="n">
-        <v>1.649692166110501</v>
+        <v>1.649692166110451</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02692642273303323</v>
+        <v>0.02692642273303241</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3431279661936255</v>
+        <v>0.343127966193615</v>
       </c>
       <c r="H7" t="n">
-        <v>3.050719553976054</v>
+        <v>3.050719553975961</v>
       </c>
       <c r="I7" t="n">
-        <v>10.31879374698648</v>
+        <v>10.31879374698617</v>
       </c>
       <c r="J7" t="n">
-        <v>24.25914720988932</v>
+        <v>24.25914720988858</v>
       </c>
       <c r="K7" t="n">
-        <v>39.86523098140484</v>
+        <v>39.86523098140362</v>
       </c>
       <c r="L7" t="n">
-        <v>51.01377053755046</v>
+        <v>51.01377053754891</v>
       </c>
       <c r="M7" t="n">
-        <v>53.78686837342439</v>
+        <v>53.78686837342275</v>
       </c>
       <c r="N7" t="n">
-        <v>52.50793686306637</v>
+        <v>52.50793686306477</v>
       </c>
       <c r="O7" t="n">
-        <v>48.49957834889537</v>
+        <v>48.49957834889389</v>
       </c>
       <c r="P7" t="n">
-        <v>41.49976783854537</v>
+        <v>41.49976783854411</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.73228815099531</v>
+        <v>28.73228815099444</v>
       </c>
       <c r="R7" t="n">
-        <v>15.42828109812428</v>
+        <v>15.42828109812381</v>
       </c>
       <c r="S7" t="n">
-        <v>5.979784647210725</v>
+        <v>5.979784647210542</v>
       </c>
       <c r="T7" t="n">
-        <v>1.466092219190945</v>
+        <v>1.4660922191909</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01871607088328868</v>
+        <v>0.01871607088328811</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060495</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857158</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>476.0648089385455</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717705</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34705,13 +34705,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>6.598225711743297</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.2279021592211631</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>1.681586895911397</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
@@ -34869,7 +34869,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>1.681586895911398</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>4.9166388158319</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K5" t="n">
-        <v>6.598225711743296</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>6.876045741711437</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,13 +35100,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>6.598225711743297</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="M8" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>13.57822064462334</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>14.14993519808116</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.421193964642708</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.421193964642706</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="M9" t="n">
         <v>14.14993519808115</v>
@@ -35267,7 +35267,7 @@
         <v>4.157026679980646</v>
       </c>
       <c r="P9" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,13 +35340,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>13.57822064462334</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>13.57822064462334</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>120.5443928316905</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023825</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>337.5104291586713</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
